--- a/doc/API交易接入需求说明书.xlsx
+++ b/doc/API交易接入需求说明书.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\source\pyotp\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055"/>
+    <workbookView xWindow="3270" yWindow="120" windowWidth="18315" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>第三方交易接入需求说明书</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接入项目介绍：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他需求说明：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,14 +144,102 @@
   </si>
   <si>
     <t>API接口调用清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳好菜鸟投资管理有限公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入项目介绍：进行期权高频交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序化接入期权交易系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个股期权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好菜鸟期权交易系统0.1.0.0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">marketapi
+"create_MdApi"
+"ReqUserLogout"
+"UnSubscribeMarketData"
+"RegisterFront"
+"Init"
+"ReqUserLogin"
+"Release"
+"GetTradingDay"
+"SubscribeMarketData"
+"RegisterSpi"
+tradeapi
+"CreateTrdApi"
+"GetTradingDay"
+"Init"
+"RegisterFront"
+"RegisterSpi"
+"Release"
+"ReqOrderAction"
+"ReqOrderInsert"
+"ReqQryInstrument"
+"ReqQryInvestor"
+"ReqQryInvestorPosition"
+"ReqQryInvestorPositionDetail"
+"ReqQryInvestorTradeLevel"
+"ReqQryOrder"
+"ReqQryOTPInsCommRate"
+"ReqQryOTPInsMarginRate"
+"ReqQryTrade"
+"ReqQryTradingAccount"
+"ReqUserLogin"
+"ReqUserLogout"
+"SubscribePrivateTopic"
+"SubscribePublicTopic"
+"ReqSettlementInfoConfirm"
+"ReqQrySettlementInfo"
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托管主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +273,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -351,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -377,29 +471,53 @@
       <alignment vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,29 +554,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,6 +566,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -517,7 +617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,9 +649,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,6 +684,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,14 +860,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
@@ -774,52 +876,51 @@
     <col min="5" max="5" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -829,101 +930,117 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="23.25" customHeight="1">
+      <c r="D6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" ht="23.25" customHeight="1">
+      <c r="D8" s="21"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.25" customHeight="1">
+      <c r="D9" s="21"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" customHeight="1">
+      <c r="D10" s="21"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="23.25" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="23.25" customHeight="1">
+    <row r="16" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -934,203 +1051,236 @@
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="23.25" customHeight="1">
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="23.25" customHeight="1">
+    <row r="21" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="23.25" customHeight="1">
+    <row r="22" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="23.25" customHeight="1">
+    <row r="23" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="23.25" customHeight="1">
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" ht="23.25" customHeight="1">
+    <row r="28" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" ht="23.25" customHeight="1">
+      <c r="D30" s="23"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" ht="23.25" customHeight="1">
+      <c r="C31" s="19"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" ht="23.25" customHeight="1">
+      <c r="C32" s="19"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="16" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5" ht="23.25" customHeight="1">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5" ht="23.25" customHeight="1">
+      <c r="B40" s="19"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A34:E37"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="A5:E5"/>
@@ -1143,21 +1293,6 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A34:E37"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1166,12 +1301,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1179,12 +1314,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
